--- a/2.xlsx
+++ b/2.xlsx
@@ -11,15 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>SHIPMENT NO</t>
+    <t>Box No</t>
+  </si>
+  <si>
+    <t>Material No</t>
+  </si>
+  <si>
+    <t>Material Code</t>
   </si>
   <si>
     <t>배치</t>
@@ -43,70 +46,142 @@
     <t>QR라인번호</t>
   </si>
   <si>
-    <t>12074986</t>
-  </si>
-  <si>
-    <t>49656481</t>
-  </si>
-  <si>
-    <t>A049N7I627</t>
-  </si>
-  <si>
-    <t>jBRA00N381750253308B</t>
-  </si>
-  <si>
-    <t>A00N3817</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>jBRA00N381750433308B</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>jBRA00N381750243308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750173308B</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>jBRA00N381750183308B</t>
-  </si>
-  <si>
-    <t>A049N7I628</t>
-  </si>
-  <si>
-    <t>jBRA00N381750193308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750203308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750213308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750223308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750013308B</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>jBRA00N381750033308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750043308B</t>
-  </si>
-  <si>
-    <t>jBRA00N381750053308B</t>
+    <t>TPBX20231122030</t>
+  </si>
+  <si>
+    <t>12075262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA02- 00536A </t>
+  </si>
+  <si>
+    <t>A095NBH014</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140073Y17VB</t>
+  </si>
+  <si>
+    <t>A95NBH014</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140083Y17VB</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140093Y17VB</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140103Y17VB</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140113Y17VB</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140123Y17VB</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140133Y17VB</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140143Y17VB</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140153Y17VB</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140163Y17VB</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140173Y17VB</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140183Y17VB</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140193Y17VB</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140203Y17VB</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140213Y17VB</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140223Y17VB</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0140233Y17VB</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>A095NBH013</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0130103Y17VB</t>
+  </si>
+  <si>
+    <t>A95NBH013</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0130123Y17VB</t>
+  </si>
+  <si>
+    <t>jSZA95NBH0130133Y17VB</t>
   </si>
 </sst>
 </file>
@@ -122,12 +197,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,12 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -488,16 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="11" width="15" customWidth="1"/>
+    <col min="2" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,464 +609,1460 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G12" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45245.625</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H14" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H18" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H19" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H20" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H23" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H24" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
         <v>22</v>
       </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45230.625</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44865.625</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H26" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H27" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H28" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H29" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I29" t="s">
         <v>31</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H30" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H31" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H32" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H33" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H34" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H35" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H36" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H37" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H38" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H39" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H40" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="L40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4">
+        <v>45611.625</v>
+      </c>
+      <c r="H41" s="4">
+        <v>45245.625</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
